--- a/medicine/Maladie à coronavirus 2019/02/02.xlsx
+++ b/medicine/Maladie à coronavirus 2019/02/02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le variant VOC-202012/02, ou Variant of Concern 202012/02, voire B.1.1.248 (réaffecté par la suite en B.1.1.28), aussi surnommé « variant brésilien », est un variant du SARS-CoV-2, coronavirus responsable du Covid-19.
-Il a été détecté au Japon chez quatre voyageurs revenant du Brésil le 6 janvier 2021. Il comporte douze mutations sur la protéine Spike donnant l'aspect de « couronne » au SARS-CoV-2, dont la mutation N501Y qu'il partage avec les variants britanniques VOC2020/01 et sud-africain 501.V2, augmentant chez ces derniers leur contagiosité. Il présente aussi la mutation E484K, présente également dans le 501.V2, qui pourrait éventuellement, selon certains scientifiques, altérer l'efficacité des anticorps contre le virus, et donc l'efficacité des vaccins selon leur formulation actuelle[1].
-Selon la fondation scientifique brésilienne d'État de l'Institut Oswaldo Cruz, le variant a probablement circulé dans la forêt amazonienne depuis juillet 2020[2].
+Il a été détecté au Japon chez quatre voyageurs revenant du Brésil le 6 janvier 2021. Il comporte douze mutations sur la protéine Spike donnant l'aspect de « couronne » au SARS-CoV-2, dont la mutation N501Y qu'il partage avec les variants britanniques VOC2020/01 et sud-africain 501.V2, augmentant chez ces derniers leur contagiosité. Il présente aussi la mutation E484K, présente également dans le 501.V2, qui pourrait éventuellement, selon certains scientifiques, altérer l'efficacité des anticorps contre le virus, et donc l'efficacité des vaccins selon leur formulation actuelle.
+Selon la fondation scientifique brésilienne d'État de l'Institut Oswaldo Cruz, le variant a probablement circulé dans la forêt amazonienne depuis juillet 2020.
 </t>
         </is>
       </c>
